--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr1_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr1_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="14.64453125" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.1796875" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31306152330779963</v>
+        <v>0.040871905345710557</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30417332324784663</v>
+        <v>-0.015469416270583181</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00130674279149253</v>
+        <v>-0.053050962818628304</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.001413777509475854</v>
+        <v>0.0011137182538578287</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0087106934375009316</v>
+        <v>-0.0032751809935352739</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00014222604305549224</v>
+        <v>0.0043413870823703019</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00021781573404741191</v>
+        <v>0.00048207782823450542</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.0501571079167543e-05</v>
+        <v>-0.0046669644764513411</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>1.5619357602358885e-05</v>
+        <v>-0.0012853964921414607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28530904213809488</v>
+        <v>0.28366676301632843</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.018449812428805862</v>
+        <v>0.24291870380191261</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.6263820338235028e-05</v>
+        <v>0.00028655976289332239</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00044285111251725535</v>
+        <v>0.00026703430868886178</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.1968095293110428e-05</v>
+        <v>-0.0068812128813553076</v>
       </c>
       <c r="I4" s="0">
-        <v>5.305003674682523e-05</v>
+        <v>-0.012117467371370875</v>
       </c>
       <c r="J4" s="0">
-        <v>7.2065446351745605e-07</v>
+        <v>0.077931407356559929</v>
       </c>
       <c r="K4" s="0">
-        <v>2.8436559923461502e-06</v>
+        <v>-0.0032688456904169105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.27504086974472602</v>
+        <v>0.38631825920457591</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00113827898269312</v>
+        <v>0.12217228098294355</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0012790569996332238</v>
+        <v>0.025952390243862408</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0093237970162698362</v>
+        <v>-0.051540676641486212</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00013423109919866467</v>
+        <v>-0.0027566232280068323</v>
       </c>
       <c r="H5" s="0">
-        <v>-2.1322708548141705e-05</v>
+        <v>-0.0066278655185185885</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0004728305405090919</v>
+        <v>-0.0036992862934230718</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0011208740929212202</v>
+        <v>0.019151276642876192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.24748970222960207</v>
+        <v>0.32556187564985672</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.029606732457380311</v>
+        <v>-0.045902448210449559</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>9.9185334575078247e-06</v>
+        <v>0.00030289419240961911</v>
       </c>
       <c r="F6" s="0">
-        <v>0.001795805937295517</v>
+        <v>-0.005413571518924771</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0009137866770593207</v>
+        <v>-0.010254911839014778</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0006703209099845497</v>
+        <v>0.0002043658735635938</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>6.3747044285467069e-06</v>
+        <v>0.00030728794769668832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.22084712001998169</v>
+        <v>0.35656615837284239</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.047399402578946093</v>
+        <v>0.088896553010014437</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0092175326854517705</v>
+        <v>-0.021994409515656458</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0096701773025807125</v>
+        <v>-0.017088266630824307</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00035481690061176993</v>
+        <v>0.004627591089781221</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00021401797832113994</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0011659104480916962</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0028942219070942909</v>
+        <v>-0.023437185230329227</v>
       </c>
     </row>
     <row r="8">
